--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2101.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2101.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.274438084567366</v>
+        <v>3.605581045150757</v>
       </c>
       <c r="B1">
-        <v>2.675749975688245</v>
+        <v>2.503911733627319</v>
       </c>
       <c r="C1">
-        <v>2.379332417713641</v>
+        <v>2.017632961273193</v>
       </c>
       <c r="D1">
-        <v>2.617595744122244</v>
+        <v>2.018800020217896</v>
       </c>
       <c r="E1">
-        <v>3.259730125879085</v>
+        <v>2.256995439529419</v>
       </c>
     </row>
   </sheetData>
